--- a/exam/exam.xlsx
+++ b/exam/exam.xlsx
@@ -168,15 +168,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +483,7 @@
   <dimension ref="B2:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,98 +498,98 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3" t="s">
+      <c r="T3" s="6"/>
+      <c r="U3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="2"/>
+      <c r="W3" s="6"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -642,17 +642,17 @@
       <c r="S4" s="1">
         <v>10</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <f>SUM(D4:S4)/16</f>
         <v>9.125</v>
       </c>
-      <c r="U4" s="6">
-        <v>12</v>
-      </c>
-      <c r="V4" s="6">
-        <v>10</v>
-      </c>
-      <c r="W4" s="5">
+      <c r="U4" s="5">
+        <v>12</v>
+      </c>
+      <c r="V4" s="5">
+        <v>10</v>
+      </c>
+      <c r="W4" s="4">
         <f t="shared" ref="W4:W11" si="0">T4*0.6+(U4*0.4+V4*0.6)*0.4</f>
         <v>9.7949999999999999</v>
       </c>
@@ -700,17 +700,17 @@
       <c r="S5" s="1">
         <v>9</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <f t="shared" ref="T5:T11" si="1">SUM(D5:S5)/16</f>
         <v>2.0625</v>
       </c>
-      <c r="U5" s="6">
-        <v>8</v>
-      </c>
-      <c r="V5" s="6">
-        <v>8</v>
-      </c>
-      <c r="W5" s="5">
+      <c r="U5" s="5">
+        <v>8</v>
+      </c>
+      <c r="V5" s="5">
+        <v>8</v>
+      </c>
+      <c r="W5" s="4">
         <f t="shared" si="0"/>
         <v>4.4375</v>
       </c>
@@ -770,13 +770,13 @@
       <c r="S6" s="1">
         <v>12</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <f t="shared" si="1"/>
         <v>9.1875</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="5">
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="4">
         <f t="shared" si="0"/>
         <v>5.5125000000000002</v>
       </c>
@@ -836,17 +836,17 @@
       <c r="S7" s="1">
         <v>8</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <f t="shared" si="1"/>
         <v>7.0625</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>7</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>4</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <f t="shared" si="0"/>
         <v>6.3174999999999999</v>
       </c>
@@ -906,17 +906,17 @@
       <c r="S8" s="1">
         <v>8</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U8" s="6">
-        <v>8</v>
-      </c>
-      <c r="V8" s="6">
+      <c r="U8" s="5">
+        <v>8</v>
+      </c>
+      <c r="V8" s="5">
         <v>2</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <f t="shared" si="0"/>
         <v>2.3600000000000003</v>
       </c>
@@ -976,17 +976,17 @@
       <c r="S9" s="1">
         <v>12</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <f t="shared" si="1"/>
         <v>10.9375</v>
       </c>
-      <c r="U9" s="6">
-        <v>12</v>
-      </c>
-      <c r="V9" s="6">
-        <v>12</v>
-      </c>
-      <c r="W9" s="5">
+      <c r="U9" s="5">
+        <v>12</v>
+      </c>
+      <c r="V9" s="5">
+        <v>12</v>
+      </c>
+      <c r="W9" s="4">
         <f t="shared" si="0"/>
         <v>11.362500000000001</v>
       </c>
@@ -1046,17 +1046,17 @@
       <c r="S10" s="1">
         <v>11</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <f t="shared" si="1"/>
         <v>11.9375</v>
       </c>
-      <c r="U10" s="6">
-        <v>12</v>
-      </c>
-      <c r="V10" s="6">
-        <v>10</v>
-      </c>
-      <c r="W10" s="5">
+      <c r="U10" s="5">
+        <v>12</v>
+      </c>
+      <c r="V10" s="5">
+        <v>10</v>
+      </c>
+      <c r="W10" s="4">
         <f t="shared" si="0"/>
         <v>11.4825</v>
       </c>
@@ -1116,19 +1116,23 @@
       <c r="S11" s="1">
         <v>10</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <f t="shared" si="1"/>
         <v>7.375</v>
       </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="5">
+      <c r="U11" s="5">
+        <v>10</v>
+      </c>
+      <c r="V11" s="5">
+        <v>10</v>
+      </c>
+      <c r="W11" s="4">
         <f t="shared" si="0"/>
-        <v>4.4249999999999998</v>
+        <v>8.4250000000000007</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W12" s="4"/>
+      <c r="W12" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
